--- a/IBK/excel/LC_ret_LC_result_0723_07.xlsx
+++ b/IBK/excel/LC_ret_LC_result_0723_07.xlsx
@@ -388,217 +388,218 @@
     <t>000152193000897_BCO990_20190225_301902251249180f.1.jpg</t>
   </si>
   <si>
+    <t>USD1,900,000,</t>
+  </si>
+  <si>
+    <t>LM733 2092,</t>
+  </si>
+  <si>
+    <t>000152193000897_BCO990_20190225_301902251249180f.2.jpg</t>
+  </si>
+  <si>
+    <t>000152193000897_BCO990_20190225_301902251249180f.4.jpg</t>
+  </si>
+  <si>
+    <t>000152193000908_BCO990_20190225_3019022512494101.1.jpg</t>
+  </si>
+  <si>
+    <t>AUSTRALIA AND NEW ZEALAND BANKING,ANZBAU3MTRS,</t>
+  </si>
+  <si>
+    <t>,USD1,500,000,</t>
+  </si>
+  <si>
+    <t>LM734382092,</t>
+  </si>
+  <si>
+    <t>ANZBAU3MTRS AUSTRALIA AND NEW ZEALAND BANKING GROUP LIMITED (TRADE AND SUPPLY CH</t>
+  </si>
+  <si>
+    <t>USD 1 500 000</t>
+  </si>
+  <si>
+    <t>LM734382092</t>
+  </si>
+  <si>
+    <t>000152193000908_BCO990_20190225_3019022512494101.2.jpg</t>
+  </si>
+  <si>
+    <t>. LM734382092,</t>
+  </si>
+  <si>
+    <t>000152193000908_BCO990_20190225_3019022512494101.4.jpg</t>
+  </si>
+  <si>
+    <t>000452191000032_BCO990_20190227_301902271503350a.3.jpg</t>
+  </si>
+  <si>
+    <t>MILITARY COMMERCIAL JOINT STCCK,BANK HANOI,21 CAT LINE VARDDONG DA DISTRICT,</t>
+  </si>
+  <si>
+    <t>USD1,600.00,</t>
+  </si>
+  <si>
+    <t>19012BL46LA7114-&gt;,</t>
+  </si>
+  <si>
+    <t>MILITARY COMMERCIAL JOINT STOCK BANK (HANOI) 21 CAT LINE WARD-DONG DA DISTRICT</t>
+  </si>
+  <si>
+    <t>USD17 600.00</t>
+  </si>
+  <si>
+    <t>190125B48LA71145</t>
+  </si>
+  <si>
+    <t>000452191000032_BCO990_20190227_301902271503350a.5.jpg</t>
+  </si>
+  <si>
+    <t>I9UI25B43LA71145,</t>
+  </si>
+  <si>
+    <t>000652193000025_304020_20190222_2019022211484502.1.jpg</t>
+  </si>
+  <si>
+    <t>SEOULBRANCH SEOUL,OFFICE SEOUL SEOUL,</t>
+  </si>
+  <si>
+    <t>USD638,200,</t>
+  </si>
+  <si>
+    <t>ILC-130019000090,</t>
+  </si>
+  <si>
+    <t>IRVTKRSXXXX THE BANK OF NEW YORK MELLON. SEOULBRANCH (SEOUL)</t>
+  </si>
+  <si>
+    <t>USD 638 200</t>
+  </si>
+  <si>
+    <t>ILC-130019000090</t>
+  </si>
+  <si>
+    <t>000652193000025_304020_20190222_2019022211484502.5.jpg</t>
+  </si>
+  <si>
+    <t>. ILC-130019000090,</t>
+  </si>
+  <si>
+    <t>000752193000139_BCO990_20190221_2019022115304519.5.jpg</t>
+  </si>
+  <si>
+    <t>HDFC BAHK LIMITED TAMILNADU,BRANCH CHENNAI,NO . 1.4,5 R.K.SALAIOPP CHENNAI KATYAN,,,</t>
+  </si>
+  <si>
+    <t>USD39.90272,</t>
+  </si>
+  <si>
+    <t>004LC0119035000.2,</t>
+  </si>
+  <si>
+    <t>HDFC BANK LIMITED (TAMILNADU BRANCH) CHENNAI NO.115,  R.K.SALAIOPP CHENNAI KALYAN</t>
+  </si>
+  <si>
+    <t>USD39 902.72</t>
+  </si>
+  <si>
+    <t>004LC01190350002</t>
+  </si>
+  <si>
+    <t>000752193000139_BCO990_20190221_2019022115304519.6.jpg</t>
+  </si>
+  <si>
+    <t>USD39902R72,</t>
+  </si>
+  <si>
+    <t>004LC01190350002,</t>
+  </si>
+  <si>
+    <t>000752193000139_BCO990_20190221_2019022115304519.7.jpg</t>
+  </si>
+  <si>
+    <t>000752193000139_BCO990_20190221_2019022115304519.8.jpg</t>
+  </si>
+  <si>
+    <t>000952191000185_BCO990_20190225_301902251418140k.1.jpg</t>
+  </si>
+  <si>
+    <t>S-004-2007676,</t>
+  </si>
+  <si>
+    <t>S-004-2007676</t>
+  </si>
+  <si>
+    <t>000952191000185_BCO990_20190225_301902251418140k.3.jpg</t>
+  </si>
+  <si>
+    <t>MUFG BANK. LTD. OSAKA BRANCH OSAKA,</t>
+  </si>
+  <si>
+    <t>USD300,00000,</t>
+  </si>
+  <si>
+    <t>MUFG BANK  LTD. OSAKA BRANCH OSAKA</t>
+  </si>
+  <si>
+    <t>USD300 000.00</t>
+  </si>
+  <si>
+    <t>000952191000185_BCO990_20190225_301902251418140k.4.jpg</t>
+  </si>
+  <si>
+    <t>USD300000,,</t>
+  </si>
+  <si>
+    <t>000952191000185_BCO990_20190225_301902251418140k.5.jpg</t>
+  </si>
+  <si>
+    <t>. S-004-2007676,</t>
+  </si>
+  <si>
+    <t>000952191000192_BCO990_20190226_3019022613383009.15.jpg</t>
+  </si>
+  <si>
+    <t>MERCANTILE BANK LIMITED ELEPHANT,ROAD BRANCH DHAKA,75 ELEPHANT ROAD OSMAN PLAZA DHAKA,</t>
+  </si>
+  <si>
+    <t>USD22,5850,</t>
+  </si>
+  <si>
+    <t>7 419010025 ',</t>
+  </si>
+  <si>
+    <t>MERCANTILE BANK LIMITED (ELEPHANT ROAD BRANCH) DHAKA 75 ELEPHANT ROAD OSMAN PLAZA DHAKA</t>
+  </si>
+  <si>
+    <t>USD22 585.00</t>
+  </si>
+  <si>
+    <t>000952191000192_BCO990_20190226_3019022613383009.16.jpg</t>
+  </si>
+  <si>
+    <t>U25850,</t>
+  </si>
+  <si>
+    <t>175419010025,</t>
+  </si>
+  <si>
+    <t>000952191000192_BCO990_20190226_3019022613383009.17.jpg</t>
+  </si>
+  <si>
+    <t>. 175419010025,</t>
+  </si>
+  <si>
+    <t>000952191000192_BCO990_20190226_3019022613383009.18.jpg</t>
+  </si>
+  <si>
+    <t>ATTHET1MEOFPAYMENTFOR9.,ETOFDOCUMENTS,</t>
+  </si>
+  <si>
+    <t>； 175419C-10025,</t>
+  </si>
+  <si>
     <t>AUSTRALIA AND NEW ZEALAND BANKING G,ANZBAU3MTRS,</t>
-  </si>
-  <si>
-    <t>USD1,900,000,</t>
-  </si>
-  <si>
-    <t>LM733 2092,</t>
-  </si>
-  <si>
-    <t>000152193000897_BCO990_20190225_301902251249180f.2.jpg</t>
-  </si>
-  <si>
-    <t>000152193000897_BCO990_20190225_301902251249180f.4.jpg</t>
-  </si>
-  <si>
-    <t>000152193000908_BCO990_20190225_3019022512494101.1.jpg</t>
-  </si>
-  <si>
-    <t>AUSTRALIA AND NEW ZEALAND BANKING,ANZBAU3MTRS,</t>
-  </si>
-  <si>
-    <t>,USD1,500,000,</t>
-  </si>
-  <si>
-    <t>LM734382092,</t>
-  </si>
-  <si>
-    <t>ANZBAU3MTRS AUSTRALIA AND NEW ZEALAND BANKING GROUP LIMITED (TRADE AND SUPPLY CH</t>
-  </si>
-  <si>
-    <t>USD 1 500 000</t>
-  </si>
-  <si>
-    <t>LM734382092</t>
-  </si>
-  <si>
-    <t>000152193000908_BCO990_20190225_3019022512494101.2.jpg</t>
-  </si>
-  <si>
-    <t>. LM734382092,</t>
-  </si>
-  <si>
-    <t>000152193000908_BCO990_20190225_3019022512494101.4.jpg</t>
-  </si>
-  <si>
-    <t>000452191000032_BCO990_20190227_301902271503350a.3.jpg</t>
-  </si>
-  <si>
-    <t>MILITARY COMMERCIAL JOINT STCCK,BANK HANOI,21 CAT LINE VARDDONG DA DISTRICT,</t>
-  </si>
-  <si>
-    <t>USD1,600.00,</t>
-  </si>
-  <si>
-    <t>19012BL46LA7114-&gt;,</t>
-  </si>
-  <si>
-    <t>MILITARY COMMERCIAL JOINT STOCK BANK (HANOI) 21 CAT LINE WARD-DONG DA DISTRICT</t>
-  </si>
-  <si>
-    <t>USD17 600.00</t>
-  </si>
-  <si>
-    <t>190125B48LA71145</t>
-  </si>
-  <si>
-    <t>000452191000032_BCO990_20190227_301902271503350a.5.jpg</t>
-  </si>
-  <si>
-    <t>I9UI25B43LA71145,</t>
-  </si>
-  <si>
-    <t>000652193000025_304020_20190222_2019022211484502.1.jpg</t>
-  </si>
-  <si>
-    <t>SEOULBRANCH SEOUL,OFFICE SEOUL SEOUL,</t>
-  </si>
-  <si>
-    <t>USD638,200,</t>
-  </si>
-  <si>
-    <t>ILC-130019000090,</t>
-  </si>
-  <si>
-    <t>IRVTKRSXXXX THE BANK OF NEW YORK MELLON. SEOULBRANCH (SEOUL)</t>
-  </si>
-  <si>
-    <t>USD 638 200</t>
-  </si>
-  <si>
-    <t>ILC-130019000090</t>
-  </si>
-  <si>
-    <t>000652193000025_304020_20190222_2019022211484502.5.jpg</t>
-  </si>
-  <si>
-    <t>. ILC-130019000090,</t>
-  </si>
-  <si>
-    <t>000752193000139_BCO990_20190221_2019022115304519.5.jpg</t>
-  </si>
-  <si>
-    <t>HDFC BAHK LIMITED TAMILNADU,BRANCH CHENNAI,NO . 1.4,5 R.K.SALAIOPP CHENNAI KATYAN,,,</t>
-  </si>
-  <si>
-    <t>USD39.90272,</t>
-  </si>
-  <si>
-    <t>004LC0119035000.2,</t>
-  </si>
-  <si>
-    <t>HDFC BANK LIMITED (TAMILNADU BRANCH) CHENNAI NO.115,  R.K.SALAIOPP CHENNAI KALYAN</t>
-  </si>
-  <si>
-    <t>USD39 902.72</t>
-  </si>
-  <si>
-    <t>004LC01190350002</t>
-  </si>
-  <si>
-    <t>000752193000139_BCO990_20190221_2019022115304519.6.jpg</t>
-  </si>
-  <si>
-    <t>USD39902R72,</t>
-  </si>
-  <si>
-    <t>004LC01190350002,</t>
-  </si>
-  <si>
-    <t>000752193000139_BCO990_20190221_2019022115304519.7.jpg</t>
-  </si>
-  <si>
-    <t>000752193000139_BCO990_20190221_2019022115304519.8.jpg</t>
-  </si>
-  <si>
-    <t>000952191000185_BCO990_20190225_301902251418140k.1.jpg</t>
-  </si>
-  <si>
-    <t>S-004-2007676,</t>
-  </si>
-  <si>
-    <t>S-004-2007676</t>
-  </si>
-  <si>
-    <t>000952191000185_BCO990_20190225_301902251418140k.3.jpg</t>
-  </si>
-  <si>
-    <t>MUFG BANK. LTD. OSAKA BRANCH OSAKA,</t>
-  </si>
-  <si>
-    <t>USD300,00000,</t>
-  </si>
-  <si>
-    <t>MUFG BANK  LTD. OSAKA BRANCH OSAKA</t>
-  </si>
-  <si>
-    <t>USD300 000.00</t>
-  </si>
-  <si>
-    <t>000952191000185_BCO990_20190225_301902251418140k.4.jpg</t>
-  </si>
-  <si>
-    <t>USD300000,,</t>
-  </si>
-  <si>
-    <t>000952191000185_BCO990_20190225_301902251418140k.5.jpg</t>
-  </si>
-  <si>
-    <t>. S-004-2007676,</t>
-  </si>
-  <si>
-    <t>000952191000192_BCO990_20190226_3019022613383009.15.jpg</t>
-  </si>
-  <si>
-    <t>MERCANTILE BANK LIMITED ELEPHANT,ROAD BRANCH DHAKA,75 ELEPHANT ROAD OSMAN PLAZA DHAKA,</t>
-  </si>
-  <si>
-    <t>USD22,5850,</t>
-  </si>
-  <si>
-    <t>7 419010025 ',</t>
-  </si>
-  <si>
-    <t>MERCANTILE BANK LIMITED (ELEPHANT ROAD BRANCH) DHAKA 75 ELEPHANT ROAD OSMAN PLAZA DHAKA</t>
-  </si>
-  <si>
-    <t>USD22 585.00</t>
-  </si>
-  <si>
-    <t>000952191000192_BCO990_20190226_3019022613383009.16.jpg</t>
-  </si>
-  <si>
-    <t>U25850,</t>
-  </si>
-  <si>
-    <t>175419010025,</t>
-  </si>
-  <si>
-    <t>000952191000192_BCO990_20190226_3019022613383009.17.jpg</t>
-  </si>
-  <si>
-    <t>. 175419010025,</t>
-  </si>
-  <si>
-    <t>000952191000192_BCO990_20190226_3019022613383009.18.jpg</t>
-  </si>
-  <si>
-    <t>ATTHET1MEOFPAYMENTFOR9.,ETOFDOCUMENTS,</t>
-  </si>
-  <si>
-    <t>； 175419C-10025,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -981,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2126,13 +2127,13 @@
         <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -2166,7 +2167,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>39</v>
@@ -2180,7 +2181,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>119</v>
@@ -2203,7 +2204,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>114</v>
@@ -2214,7 +2215,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>117</v>
@@ -2237,30 +2238,30 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -2280,24 +2281,24 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -2317,7 +2318,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>39</v>
@@ -2326,15 +2327,15 @@
         <v>39</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -2354,30 +2355,30 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="C104" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="D104" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -2397,24 +2398,24 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -2434,30 +2435,30 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -2477,24 +2478,24 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -2514,30 +2515,30 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -2557,27 +2558,27 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C119" s="2" t="s">
+      <c r="D119" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C120" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -2597,7 +2598,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>39</v>
@@ -2606,15 +2607,15 @@
         <v>39</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -2634,7 +2635,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>39</v>
@@ -2643,15 +2644,15 @@
         <v>39</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -2671,24 +2672,24 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -2708,30 +2709,30 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="C131" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="D131" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="D132" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -2751,27 +2752,27 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="D134" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -2791,24 +2792,24 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -2828,27 +2829,27 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="C140" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="D140" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="D141" s="2">
         <v>175419010025</v>
@@ -2871,24 +2872,24 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C143" s="2" t="s">
+      <c r="D143" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D144" s="2">
         <v>175419010025</v>
@@ -2911,21 +2912,21 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D147" s="2">
         <v>175419010025</v>
@@ -2948,21 +2949,21 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C149" s="2" t="s">
+      <c r="D149" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D150" s="2">
         <v>175419010025</v>
